--- a/natmiOut/YoungD7/LR-pairs_lrc2p/C3-Cd46.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/C3-Cd46.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83010728363139</v>
+        <v>40.942832</v>
       </c>
       <c r="H2">
-        <v>1.83010728363139</v>
+        <v>122.828496</v>
       </c>
       <c r="I2">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="J2">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.11595834719938</v>
+        <v>8.452892666666665</v>
       </c>
       <c r="N2">
-        <v>7.11595834719938</v>
+        <v>25.358678</v>
       </c>
       <c r="O2">
-        <v>0.5406372012839191</v>
+        <v>0.5664982795292011</v>
       </c>
       <c r="P2">
-        <v>0.5406372012839191</v>
+        <v>0.566498279529201</v>
       </c>
       <c r="Q2">
-        <v>13.02296720122717</v>
+        <v>346.0853643653653</v>
       </c>
       <c r="R2">
-        <v>13.02296720122717</v>
+        <v>3114.768279288288</v>
       </c>
       <c r="S2">
-        <v>0.008864435099153656</v>
+        <v>0.1463265059301213</v>
       </c>
       <c r="T2">
-        <v>0.008864435099153656</v>
+        <v>0.1463265059301213</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83010728363139</v>
+        <v>40.942832</v>
       </c>
       <c r="H3">
-        <v>1.83010728363139</v>
+        <v>122.828496</v>
       </c>
       <c r="I3">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="J3">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.30350788983694</v>
+        <v>3.429517666666667</v>
       </c>
       <c r="N3">
-        <v>3.30350788983694</v>
+        <v>10.288553</v>
       </c>
       <c r="O3">
-        <v>0.2509850638296249</v>
+        <v>0.2298403557687432</v>
       </c>
       <c r="P3">
-        <v>0.2509850638296249</v>
+        <v>0.2298403557687431</v>
       </c>
       <c r="Q3">
-        <v>6.045773850724347</v>
+        <v>140.4141656673654</v>
       </c>
       <c r="R3">
-        <v>6.045773850724347</v>
+        <v>1263.727491006288</v>
       </c>
       <c r="S3">
-        <v>0.004115219603628901</v>
+        <v>0.05936776402803284</v>
       </c>
       <c r="T3">
-        <v>0.004115219603628901</v>
+        <v>0.05936776402803283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.83010728363139</v>
+        <v>40.942832</v>
       </c>
       <c r="H4">
-        <v>1.83010728363139</v>
+        <v>122.828496</v>
       </c>
       <c r="I4">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="J4">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.510811841933261</v>
+        <v>0.6234873333333334</v>
       </c>
       <c r="N4">
-        <v>0.510811841933261</v>
+        <v>1.870462</v>
       </c>
       <c r="O4">
-        <v>0.03880909234301118</v>
+        <v>0.04178504514015868</v>
       </c>
       <c r="P4">
-        <v>0.03880909234301118</v>
+        <v>0.04178504514015867</v>
       </c>
       <c r="Q4">
-        <v>0.9348404724872273</v>
+        <v>25.52733714279467</v>
       </c>
       <c r="R4">
-        <v>0.9348404724872273</v>
+        <v>229.746034285152</v>
       </c>
       <c r="S4">
-        <v>0.000636324469560538</v>
+        <v>0.01079307718387633</v>
       </c>
       <c r="T4">
-        <v>0.000636324469560538</v>
+        <v>0.01079307718387633</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.83010728363139</v>
+        <v>40.942832</v>
       </c>
       <c r="H5">
-        <v>1.83010728363139</v>
+        <v>122.828496</v>
       </c>
       <c r="I5">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="J5">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.23189117298019</v>
+        <v>2.415405666666667</v>
       </c>
       <c r="N5">
-        <v>2.23189117298019</v>
+        <v>7.246217000000001</v>
       </c>
       <c r="O5">
-        <v>0.1695686425434447</v>
+        <v>0.1618763195618971</v>
       </c>
       <c r="P5">
-        <v>0.1695686425434447</v>
+        <v>0.1618763195618971</v>
       </c>
       <c r="Q5">
-        <v>4.084600291943652</v>
+        <v>98.89354842218135</v>
       </c>
       <c r="R5">
-        <v>4.084600291943652</v>
+        <v>890.041935799632</v>
       </c>
       <c r="S5">
-        <v>0.002780293740623617</v>
+        <v>0.04181265343648616</v>
       </c>
       <c r="T5">
-        <v>0.002780293740623617</v>
+        <v>0.04181265343648616</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>74.57477241737681</v>
+        <v>79.68771233333334</v>
       </c>
       <c r="H6">
-        <v>74.57477241737681</v>
+        <v>239.063137</v>
       </c>
       <c r="I6">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="J6">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.11595834719938</v>
+        <v>8.452892666666665</v>
       </c>
       <c r="N6">
-        <v>7.11595834719938</v>
+        <v>25.358678</v>
       </c>
       <c r="O6">
-        <v>0.5406372012839191</v>
+        <v>0.5664982795292011</v>
       </c>
       <c r="P6">
-        <v>0.5406372012839191</v>
+        <v>0.566498279529201</v>
       </c>
       <c r="Q6">
-        <v>530.6709742739266</v>
+        <v>673.5916792058762</v>
       </c>
       <c r="R6">
-        <v>530.6709742739266</v>
+        <v>6062.325112852885</v>
       </c>
       <c r="S6">
-        <v>0.3612155615359752</v>
+        <v>0.2847977030827106</v>
       </c>
       <c r="T6">
-        <v>0.3612155615359752</v>
+        <v>0.2847977030827105</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>74.57477241737681</v>
+        <v>79.68771233333334</v>
       </c>
       <c r="H7">
-        <v>74.57477241737681</v>
+        <v>239.063137</v>
       </c>
       <c r="I7">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="J7">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.30350788983694</v>
+        <v>3.429517666666667</v>
       </c>
       <c r="N7">
-        <v>3.30350788983694</v>
+        <v>10.288553</v>
       </c>
       <c r="O7">
-        <v>0.2509850638296249</v>
+        <v>0.2298403557687432</v>
       </c>
       <c r="P7">
-        <v>0.2509850638296249</v>
+        <v>0.2298403557687431</v>
       </c>
       <c r="Q7">
-        <v>246.3583490635985</v>
+        <v>273.2904172634179</v>
       </c>
       <c r="R7">
-        <v>246.3583490635985</v>
+        <v>2459.613755370761</v>
       </c>
       <c r="S7">
-        <v>0.1676904781118642</v>
+        <v>0.1155484628356704</v>
       </c>
       <c r="T7">
-        <v>0.1676904781118642</v>
+        <v>0.1155484628356703</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>74.57477241737681</v>
+        <v>79.68771233333334</v>
       </c>
       <c r="H8">
-        <v>74.57477241737681</v>
+        <v>239.063137</v>
       </c>
       <c r="I8">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="J8">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.510811841933261</v>
+        <v>0.6234873333333334</v>
       </c>
       <c r="N8">
-        <v>0.510811841933261</v>
+        <v>1.870462</v>
       </c>
       <c r="O8">
-        <v>0.03880909234301118</v>
+        <v>0.04178504514015868</v>
       </c>
       <c r="P8">
-        <v>0.03880909234301118</v>
+        <v>0.04178504514015867</v>
       </c>
       <c r="Q8">
-        <v>38.09367686027399</v>
+        <v>49.68427926214378</v>
       </c>
       <c r="R8">
-        <v>38.09367686027399</v>
+        <v>447.158513359294</v>
       </c>
       <c r="S8">
-        <v>0.02592949218087643</v>
+        <v>0.02100674496136956</v>
       </c>
       <c r="T8">
-        <v>0.02592949218087643</v>
+        <v>0.02100674496136956</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>74.57477241737681</v>
+        <v>79.68771233333334</v>
       </c>
       <c r="H9">
-        <v>74.57477241737681</v>
+        <v>239.063137</v>
       </c>
       <c r="I9">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="J9">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.23189117298019</v>
+        <v>2.415405666666667</v>
       </c>
       <c r="N9">
-        <v>2.23189117298019</v>
+        <v>7.246217000000001</v>
       </c>
       <c r="O9">
-        <v>0.1695686425434447</v>
+        <v>0.1618763195618971</v>
       </c>
       <c r="P9">
-        <v>0.1695686425434447</v>
+        <v>0.1618763195618971</v>
       </c>
       <c r="Q9">
-        <v>166.4427762853498</v>
+        <v>192.4781519336366</v>
       </c>
       <c r="R9">
-        <v>166.4427762853498</v>
+        <v>1732.303367402729</v>
       </c>
       <c r="S9">
-        <v>0.1132937805422257</v>
+        <v>0.08138066020787402</v>
       </c>
       <c r="T9">
-        <v>0.1132937805422257</v>
+        <v>0.081380660207874</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.8682733021744</v>
+        <v>37.53186833333334</v>
       </c>
       <c r="H10">
-        <v>34.8682733021744</v>
+        <v>112.595605</v>
       </c>
       <c r="I10">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="J10">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.11595834719938</v>
+        <v>8.452892666666665</v>
       </c>
       <c r="N10">
-        <v>7.11595834719938</v>
+        <v>25.358678</v>
       </c>
       <c r="O10">
-        <v>0.5406372012839191</v>
+        <v>0.5664982795292011</v>
       </c>
       <c r="P10">
-        <v>0.5406372012839191</v>
+        <v>0.566498279529201</v>
       </c>
       <c r="Q10">
-        <v>248.1211804570372</v>
+        <v>317.2528546011322</v>
       </c>
       <c r="R10">
-        <v>248.1211804570372</v>
+        <v>2855.27569141019</v>
       </c>
       <c r="S10">
-        <v>0.1688903970117917</v>
+        <v>0.1341359863491131</v>
       </c>
       <c r="T10">
-        <v>0.1688903970117917</v>
+        <v>0.1341359863491131</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.8682733021744</v>
+        <v>37.53186833333334</v>
       </c>
       <c r="H11">
-        <v>34.8682733021744</v>
+        <v>112.595605</v>
       </c>
       <c r="I11">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="J11">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.30350788983694</v>
+        <v>3.429517666666667</v>
       </c>
       <c r="N11">
-        <v>3.30350788983694</v>
+        <v>10.288553</v>
       </c>
       <c r="O11">
-        <v>0.2509850638296249</v>
+        <v>0.2298403557687432</v>
       </c>
       <c r="P11">
-        <v>0.2509850638296249</v>
+        <v>0.2298403557687431</v>
       </c>
       <c r="Q11">
-        <v>115.1876159587239</v>
+        <v>128.7162055121739</v>
       </c>
       <c r="R11">
-        <v>115.1876159587239</v>
+        <v>1158.445849609565</v>
       </c>
       <c r="S11">
-        <v>0.07840556841732094</v>
+        <v>0.05442181192411243</v>
       </c>
       <c r="T11">
-        <v>0.07840556841732094</v>
+        <v>0.05442181192411241</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.8682733021744</v>
+        <v>37.53186833333334</v>
       </c>
       <c r="H12">
-        <v>34.8682733021744</v>
+        <v>112.595605</v>
       </c>
       <c r="I12">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="J12">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.510811841933261</v>
+        <v>0.6234873333333334</v>
       </c>
       <c r="N12">
-        <v>0.510811841933261</v>
+        <v>1.870462</v>
       </c>
       <c r="O12">
-        <v>0.03880909234301118</v>
+        <v>0.04178504514015868</v>
       </c>
       <c r="P12">
-        <v>0.03880909234301118</v>
+        <v>0.04178504514015867</v>
       </c>
       <c r="Q12">
-        <v>17.81112691051606</v>
+        <v>23.40064450216778</v>
       </c>
       <c r="R12">
-        <v>17.81112691051606</v>
+        <v>210.60580051951</v>
       </c>
       <c r="S12">
-        <v>0.01212362559940879</v>
+        <v>0.009893901618157497</v>
       </c>
       <c r="T12">
-        <v>0.01212362559940879</v>
+        <v>0.009893901618157494</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.8682733021744</v>
+        <v>37.53186833333334</v>
       </c>
       <c r="H13">
-        <v>34.8682733021744</v>
+        <v>112.595605</v>
       </c>
       <c r="I13">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="J13">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.23189117298019</v>
+        <v>2.415405666666667</v>
       </c>
       <c r="N13">
-        <v>2.23189117298019</v>
+        <v>7.246217000000001</v>
       </c>
       <c r="O13">
-        <v>0.1695686425434447</v>
+        <v>0.1618763195618971</v>
       </c>
       <c r="P13">
-        <v>0.1695686425434447</v>
+        <v>0.1618763195618971</v>
       </c>
       <c r="Q13">
-        <v>77.82219140018385</v>
+        <v>90.65468745292057</v>
       </c>
       <c r="R13">
-        <v>77.82219140018385</v>
+        <v>815.8921870762852</v>
       </c>
       <c r="S13">
-        <v>0.05297178087616147</v>
+        <v>0.03832922459896024</v>
       </c>
       <c r="T13">
-        <v>0.05297178087616147</v>
+        <v>0.03832922459896023</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.34412083373193</v>
+        <v>0.3464216666666666</v>
       </c>
       <c r="H14">
-        <v>0.34412083373193</v>
+        <v>1.039265</v>
       </c>
       <c r="I14">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="J14">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.11595834719938</v>
+        <v>8.452892666666665</v>
       </c>
       <c r="N14">
-        <v>7.11595834719938</v>
+        <v>25.358678</v>
       </c>
       <c r="O14">
-        <v>0.5406372012839191</v>
+        <v>0.5664982795292011</v>
       </c>
       <c r="P14">
-        <v>0.5406372012839191</v>
+        <v>0.566498279529201</v>
       </c>
       <c r="Q14">
-        <v>2.448749519239937</v>
+        <v>2.92826516574111</v>
       </c>
       <c r="R14">
-        <v>2.448749519239937</v>
+        <v>26.35438649167</v>
       </c>
       <c r="S14">
-        <v>0.001666807636998477</v>
+        <v>0.001238084167256005</v>
       </c>
       <c r="T14">
-        <v>0.001666807636998477</v>
+        <v>0.001238084167256005</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.34412083373193</v>
+        <v>0.3464216666666666</v>
       </c>
       <c r="H15">
-        <v>0.34412083373193</v>
+        <v>1.039265</v>
       </c>
       <c r="I15">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="J15">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.30350788983694</v>
+        <v>3.429517666666667</v>
       </c>
       <c r="N15">
-        <v>3.30350788983694</v>
+        <v>10.288553</v>
       </c>
       <c r="O15">
-        <v>0.2509850638296249</v>
+        <v>0.2298403557687432</v>
       </c>
       <c r="P15">
-        <v>0.2509850638296249</v>
+        <v>0.2298403557687431</v>
       </c>
       <c r="Q15">
-        <v>1.136805889290696</v>
+        <v>1.188059225949444</v>
       </c>
       <c r="R15">
-        <v>1.136805889290696</v>
+        <v>10.692533033545</v>
       </c>
       <c r="S15">
-        <v>0.000773797696810866</v>
+        <v>0.0005023169809275655</v>
       </c>
       <c r="T15">
-        <v>0.000773797696810866</v>
+        <v>0.0005023169809275652</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.34412083373193</v>
+        <v>0.3464216666666666</v>
       </c>
       <c r="H16">
-        <v>0.34412083373193</v>
+        <v>1.039265</v>
       </c>
       <c r="I16">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="J16">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.510811841933261</v>
+        <v>0.6234873333333334</v>
       </c>
       <c r="N16">
-        <v>0.510811841933261</v>
+        <v>1.870462</v>
       </c>
       <c r="O16">
-        <v>0.03880909234301118</v>
+        <v>0.04178504514015868</v>
       </c>
       <c r="P16">
-        <v>0.03880909234301118</v>
+        <v>0.04178504514015867</v>
       </c>
       <c r="Q16">
-        <v>0.1757809969262166</v>
+        <v>0.2159895211588889</v>
       </c>
       <c r="R16">
-        <v>0.1757809969262166</v>
+        <v>1.94390569043</v>
       </c>
       <c r="S16">
-        <v>0.000119650093165415</v>
+        <v>9.132137675528676E-05</v>
       </c>
       <c r="T16">
-        <v>0.000119650093165415</v>
+        <v>9.132137675528675E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.34412083373193</v>
+        <v>0.3464216666666666</v>
       </c>
       <c r="H17">
-        <v>0.34412083373193</v>
+        <v>1.039265</v>
       </c>
       <c r="I17">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="J17">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.23189117298019</v>
+        <v>2.415405666666667</v>
       </c>
       <c r="N17">
-        <v>2.23189117298019</v>
+        <v>7.246217000000001</v>
       </c>
       <c r="O17">
-        <v>0.1695686425434447</v>
+        <v>0.1618763195618971</v>
       </c>
       <c r="P17">
-        <v>0.1695686425434447</v>
+        <v>0.1618763195618971</v>
       </c>
       <c r="Q17">
-        <v>0.7680402512448781</v>
+        <v>0.8367488567227778</v>
       </c>
       <c r="R17">
-        <v>0.7680402512448781</v>
+        <v>7.530739710504999</v>
       </c>
       <c r="S17">
-        <v>0.0005227873844338899</v>
+        <v>0.0003537813185766745</v>
       </c>
       <c r="T17">
-        <v>0.0005227873844338899</v>
+        <v>0.0003537813185766744</v>
       </c>
     </row>
   </sheetData>
